--- a/Scope of the study.xlsx
+++ b/Scope of the study.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\8. Optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDBDC30-AF15-468E-8F42-739A66006A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDAC060-2545-45C0-B0F7-ED78E11E28AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
-    <sheet name="scenario old" sheetId="2" r:id="rId2"/>
-    <sheet name="scenario" sheetId="12" r:id="rId3"/>
-    <sheet name="region" sheetId="3" r:id="rId4"/>
-    <sheet name="decades" sheetId="10" r:id="rId5"/>
-    <sheet name="metals" sheetId="11" r:id="rId6"/>
-    <sheet name="technologies precises" sheetId="14" r:id="rId7"/>
-    <sheet name="technologies flex" sheetId="9" r:id="rId8"/>
-    <sheet name="technologies graph" sheetId="15" r:id="rId9"/>
+    <sheet name="scenario" sheetId="12" r:id="rId2"/>
+    <sheet name="region" sheetId="3" r:id="rId3"/>
+    <sheet name="decades" sheetId="10" r:id="rId4"/>
+    <sheet name="metals" sheetId="11" r:id="rId5"/>
+    <sheet name="technologies precises" sheetId="14" r:id="rId6"/>
+    <sheet name="technologies flex" sheetId="9" r:id="rId7"/>
+    <sheet name="technologies graph" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>AIM..CGE</t>
   </si>
@@ -95,18 +94,6 @@
   </si>
   <si>
     <t>SSP2-Baseline</t>
-  </si>
-  <si>
-    <t>SSP3-34</t>
-  </si>
-  <si>
-    <t>SSP3-45</t>
-  </si>
-  <si>
-    <t>SSP3-60</t>
-  </si>
-  <si>
-    <t>SSP3-Baseline</t>
   </si>
   <si>
     <t>SSP4-19</t>
@@ -887,11 +874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DDA55F-C91B-410C-A7A1-E8A70AD66B7D}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -999,7 +986,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1007,7 +994,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1015,7 +1002,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1023,7 +1010,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1031,7 +1018,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1039,7 +1026,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1047,7 +1034,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1055,7 +1042,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1063,7 +1050,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1071,7 +1058,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -1079,7 +1066,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -1087,42 +1074,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1131,11 +1086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DDA55F-C91B-410C-A7A1-E8A70AD66B7D}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1150,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1158,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1166,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1174,167 +1129,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1343,66 +1146,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1C069D-9DDA-441A-A53A-B4DEFE516D7B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1422,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1430,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1438,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1446,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1454,12 +1197,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D5441-84C0-47F5-8CE4-74B9C7F43771}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1477,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1485,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1493,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1501,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1509,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1517,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1525,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1533,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1541,7 +1284,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1549,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1557,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1565,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1573,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1581,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1589,7 +1332,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1597,7 +1340,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1605,7 +1348,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1613,7 +1356,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1621,7 +1364,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1629,7 +1372,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1637,7 +1380,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1645,7 +1388,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1653,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1661,7 +1404,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1669,7 +1412,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1677,7 +1420,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1685,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1693,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1701,7 +1444,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1714,12 +1457,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4ADB2C-08DF-42E6-96C4-9EAF03F90AD1}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1737,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1745,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1753,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1761,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1769,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1777,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1785,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1793,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1801,7 +1544,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1809,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1817,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1825,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1833,7 +1576,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1841,7 +1584,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1849,7 +1592,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1857,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1865,7 +1608,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1873,7 +1616,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1881,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1889,7 +1632,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1897,7 +1640,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1905,7 +1648,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1913,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1921,12 +1664,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4B89C8-D680-49C2-9103-E9713289E89B}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1944,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1952,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1960,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1968,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1976,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1984,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1992,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -2000,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2008,7 +1751,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2016,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2024,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2032,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2040,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2048,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2056,7 +1799,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2064,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2072,7 +1815,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +1823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3896E8-009F-4671-8416-11778331F608}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -2103,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2111,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2119,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2127,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2135,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2143,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2151,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -2159,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2167,7 +1910,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2175,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2183,7 +1926,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2191,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2199,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2207,7 +1950,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2215,7 +1958,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2223,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2231,7 +1974,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
